--- a/biology/Biochimie/Hétéroprotéine/Hétéroprotéine.xlsx
+++ b/biology/Biochimie/Hétéroprotéine/Hétéroprotéine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%A9t%C3%A9roprot%C3%A9ine</t>
+          <t>Hétéroprotéine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’hétéroprotéine est une protéine constituée d'une partie protéique appelée apoprotéine (composée d'acides aminés) et d'une partie non protéique appelée groupement prosthétique (cofacteurs fixés durablement), qui est une molécule non protéique. Par exemple, l'hémoglobine, constituée d'un groupement héminique.
 On peut classer les hétéroprotéines en fonction de leur groupe prosthétique : on distingue les nucléoprotéines, les glycoprotéines, les lipoprotéines, les phosphoprotéines, les chromoprotéines (les flavoprotéines, les hémoprotéines, etc.) et les métalloprotéines.
